--- a/lssvm/kernel_result.xlsx
+++ b/lssvm/kernel_result.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="errors of RBF" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -254,11 +255,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -565,7 +569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -751,4 +755,236 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="4">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4">
+        <v>31</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4">
+        <v>79</v>
+      </c>
+      <c r="F1" s="4">
+        <v>90</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4">
+        <v>126</v>
+      </c>
+      <c r="I1" s="4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="4">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4">
+        <v>31</v>
+      </c>
+      <c r="D2" s="4">
+        <v>68</v>
+      </c>
+      <c r="E2" s="4">
+        <v>79</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4">
+        <v>106</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="4">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4">
+        <v>31</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4">
+        <v>79</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4">
+        <v>126</v>
+      </c>
+      <c r="I3" s="4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="4">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4">
+        <v>31</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4">
+        <v>79</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4">
+        <v>126</v>
+      </c>
+      <c r="I4" s="4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="4">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4">
+        <v>31</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4">
+        <v>79</v>
+      </c>
+      <c r="F5" s="4">
+        <v>90</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4">
+        <v>126</v>
+      </c>
+      <c r="I5" s="4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="4">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4">
+        <v>31</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4">
+        <v>79</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4">
+        <v>126</v>
+      </c>
+      <c r="I6" s="4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="4">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4">
+        <v>31</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4">
+        <v>79</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4">
+        <v>126</v>
+      </c>
+      <c r="I7" s="4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="4">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4">
+        <v>31</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4">
+        <v>79</v>
+      </c>
+      <c r="F8" s="4">
+        <v>90</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4">
+        <v>126</v>
+      </c>
+      <c r="I8" s="4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4">
+        <v>31</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4">
+        <v>79</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4">
+        <v>126</v>
+      </c>
+      <c r="I9" s="4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4">
+        <v>31</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4">
+        <v>79</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4">
+        <v>126</v>
+      </c>
+      <c r="I10" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>